--- a/xlsx/美国国家公园管理局_intext.xlsx
+++ b/xlsx/美国国家公园管理局_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="198">
   <si>
     <t>美国国家公园管理局</t>
   </si>
@@ -29,7 +29,7 @@
     <t>en-National Park Service</t>
   </si>
   <si>
-    <t>政策_政策_美國_美国国家公园管理局</t>
+    <t>政策_政策_美国_美国国家公园管理局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%94%BF%E5%BA%9C</t>
@@ -47,13 +47,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>美國國家公園</t>
+    <t>美国国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E7%B4%80%E5%BF%B5%E5%8D%80</t>
   </si>
   <si>
-    <t>國家紀念區</t>
+    <t>国家纪念区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E4%BF%9D%E6%8A%A4%E5%8C%BA</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%83%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>美國參議院</t>
+    <t>美国参议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E6%94%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>內政部</t>
+    <t>内政部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%97%E6%A0%BC%EF%BC%8D%E8%81%96%E4%BC%8A%E5%88%A9%E4%BA%9E%E6%96%AF%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92%E6%9A%A8%E4%BF%9D%E8%AD%B7%E5%8D%80</t>
   </si>
   <si>
-    <t>朗格－聖伊利亞斯國家公園暨保護區</t>
+    <t>朗格－圣伊利亚斯国家公园暨保护区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%84%AA%E5%8B%9D%E7%BE%8E%E5%9C%B0%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>優勝美地國家公園</t>
+    <t>优胜美地国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
@@ -173,31 +173,31 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>Template talk-美國國家公園</t>
+    <t>Template talk-美国国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%A7%91%E5%BA%95%E4%BA%9E%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>阿科底亞國家公園</t>
+    <t>阿科底亚国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>美屬薩摩亞國家公園</t>
+    <t>美属萨摩亚国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%B1%E9%96%80%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>拱門國家公園</t>
+    <t>拱门国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%B6%E5%9C%B0%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
@@ -209,13 +209,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%BD%8E%E6%9B%B2%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>大彎曲國家公園</t>
+    <t>大弯曲国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E6%96%AF%E5%9D%8E%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>比斯坎國家公園</t>
+    <t>比斯坎国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%98%E5%B0%BC%E9%80%8A%E9%BB%91%E5%B3%A1%E8%B0%B7%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E8%90%8A%E6%96%AF%E5%B3%BD%E8%B0%B7%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>布萊斯峽谷國家公園</t>
+    <t>布莱斯峡谷国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B3%A1%E8%B0%B7%E5%9C%B0%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%B1%B1%E5%8F%A3%E6%B9%96%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>火山口湖國家公園</t>
+    <t>火山口湖国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%93%E9%9B%85%E8%8D%B7%E5%8A%A0%E8%B0%B7%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E4%BA%A1%E8%B0%B7%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>死亡谷國家公園</t>
+    <t>死亡谷国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E7%BA%B3%E5%88%A9%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%92%8C%E7%A6%81%E7%8C%8E%E5%8C%BA</t>
@@ -287,13 +287,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%BE%E9%BE%9C%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>乾龜國家公園</t>
+    <t>干龟国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B2%BC%E6%BE%A4%E5%9C%B0%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>大沼澤地國家公園</t>
+    <t>大沼泽地国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%9E%81%E9%97%A8%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%92%8C%E4%BF%9D%E6%8A%A4%E5%8C%BA</t>
@@ -305,31 +305,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B7%9D%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>冰川國家公園 (美國)</t>
+    <t>冰川国家公园 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B7%9D%E7%81%A3%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>冰川灣國家公園</t>
+    <t>冰川湾国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%B3%BD%E8%B0%B7%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>大峽谷國家公園</t>
+    <t>大峡谷国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%92%82%E9%A0%93%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>大蒂頓國家公園</t>
+    <t>大蒂顿国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%9B%86%E5%9C%B0%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>大盆地國家公園</t>
+    <t>大盆地国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B2%99%E4%B8%98%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
@@ -341,25 +341,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%85%99%E5%B1%B1%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>大煙山國家公園</t>
+    <t>大烟山国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E9%81%94%E6%B4%9B%E6%99%AE%E5%B1%B1%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>瓜達洛普山國家公園</t>
+    <t>瓜达洛普山国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%8B%92%E5%8D%A1%E6%8B%89%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>海勒卡拉國家公園</t>
+    <t>海勒卡拉国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E7%81%AB%E5%B1%B1%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>夏威夷火山國家公園</t>
+    <t>夏威夷火山国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E6%B3%89%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
@@ -371,25 +371,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%AE%B6%E5%B3%B6%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>皇家島國家公園</t>
+    <t>皇家岛国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%9B%B8%E4%BA%9E%E6%A8%B9%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>約書亞樹國家公園</t>
+    <t>约书亚树国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%89%B9%E9%82%81%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92%E5%92%8C%E8%87%AA%E7%84%B6%E4%BF%9D%E8%AD%B7%E5%8D%80</t>
   </si>
   <si>
-    <t>卡特邁國家公園和自然保護區</t>
+    <t>卡特迈国家公园和自然保护区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%A5%88%E5%B3%BD%E7%81%A3%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>基奈峽灣國家公園</t>
+    <t>基奈峡湾国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E7%8E%8B%E5%B3%A1%E8%B0%B7%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
@@ -401,25 +401,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E4%BC%AF%E5%85%8B%E8%B0%B7%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>科伯克谷國家公園</t>
+    <t>科伯克谷国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%8B%89%E5%85%8B%E6%B9%96%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92%E5%92%8C%E8%87%AA%E7%84%B6%E4%BF%9D%E8%AD%B7%E5%8D%80</t>
   </si>
   <si>
-    <t>克拉克湖國家公園和自然保護區</t>
+    <t>克拉克湖国家公园和自然保护区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%A3%AE%E7%81%AB%E5%B1%B1%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>拉森火山國家公園</t>
+    <t>拉森火山国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%9B%E7%8D%81%E6%B4%9E%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>猛獁洞國家公園</t>
+    <t>猛犸洞国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E8%90%A8%E7%BB%B4%E5%BE%B7%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
@@ -431,103 +431,100 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%B0%BC%E7%88%BE%E5%B1%B1%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>瑞尼爾山國家公園</t>
+    <t>瑞尼尔山国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%96%80%E6%96%AF%E9%96%8B%E5%B1%B1%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>北喀斯開山國家公園</t>
+    <t>北喀斯开山国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>奧林匹克國家公園</t>
+    <t>奥林匹克国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E5%8C%96%E6%9E%97%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>石化林國家公園</t>
+    <t>石化林国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%96%E9%A0%82%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>尖頂國家公園</t>
+    <t>尖顶国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E6%9C%A8%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>紅木國家公園</t>
+    <t>红木国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>洛磯山國家公園</t>
+    <t>洛矶山国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A8%E4%BA%BA%E6%9F%B1%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>巨人柱國家公園</t>
+    <t>巨人柱国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A8%E6%9D%89%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>巨杉國家公園</t>
+    <t>巨杉国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%99%E7%B4%8D%E5%BA%A6%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>仙納度國家公園</t>
+    <t>仙纳度国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A5%A5%E5%A4%9A%C2%B7%E7%BE%85%E6%96%AF%E7%A6%8F%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>西奥多·羅斯福國家公園</t>
+    <t>西奥多·罗斯福国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>維爾京群島國家公園</t>
+    <t>维尔京群岛国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%B5%E5%A4%AB%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>樵夫國家公園</t>
+    <t>樵夫国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E6%B4%9E%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>風洞國家公園</t>
+    <t>风洞国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E8%98%AD%E6%A0%BC%E7%88%BE%EF%BC%8D%E8%81%96%E4%BC%8A%E8%90%8A%E4%BA%9E%E6%96%AF%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>弗蘭格爾－聖伊萊亞斯國家公園</t>
+    <t>弗兰格尔－圣伊莱亚斯国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E7%9F%B3%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>黃石國家公園</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8C%AB%E5%AE%89%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>錫安國家公園</t>
+    <t>锡安国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%8D%A1%E8%BF%AA%E4%BA%9A%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
@@ -539,7 +536,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -557,7 +554,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -569,7 +566,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -593,7 +590,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>澳洲國家圖書館</t>
+    <t>澳洲国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -3389,7 +3386,7 @@
         <v>167</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3444,10 +3441,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>168</v>
+      </c>
+      <c r="F86" t="s">
         <v>169</v>
-      </c>
-      <c r="F86" t="s">
-        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3473,10 +3470,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>170</v>
+      </c>
+      <c r="F87" t="s">
         <v>171</v>
-      </c>
-      <c r="F87" t="s">
-        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>56</v>
@@ -3502,10 +3499,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>172</v>
+      </c>
+      <c r="F88" t="s">
         <v>173</v>
-      </c>
-      <c r="F88" t="s">
-        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>3</v>
@@ -3531,10 +3528,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" t="s">
         <v>175</v>
-      </c>
-      <c r="F89" t="s">
-        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3560,10 +3557,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" t="s">
         <v>177</v>
-      </c>
-      <c r="F90" t="s">
-        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3589,10 +3586,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>178</v>
+      </c>
+      <c r="F91" t="s">
         <v>179</v>
-      </c>
-      <c r="F91" t="s">
-        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3618,10 +3615,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>180</v>
+      </c>
+      <c r="F92" t="s">
         <v>181</v>
-      </c>
-      <c r="F92" t="s">
-        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3647,10 +3644,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>182</v>
+      </c>
+      <c r="F93" t="s">
         <v>183</v>
-      </c>
-      <c r="F93" t="s">
-        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3676,10 +3673,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>184</v>
+      </c>
+      <c r="F94" t="s">
         <v>185</v>
-      </c>
-      <c r="F94" t="s">
-        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3705,10 +3702,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F95" t="s">
         <v>187</v>
-      </c>
-      <c r="F95" t="s">
-        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3734,10 +3731,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>188</v>
+      </c>
+      <c r="F96" t="s">
         <v>189</v>
-      </c>
-      <c r="F96" t="s">
-        <v>190</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3763,10 +3760,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>190</v>
+      </c>
+      <c r="F97" t="s">
         <v>191</v>
-      </c>
-      <c r="F97" t="s">
-        <v>192</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3792,10 +3789,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>192</v>
+      </c>
+      <c r="F98" t="s">
         <v>193</v>
-      </c>
-      <c r="F98" t="s">
-        <v>194</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3821,10 +3818,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>194</v>
+      </c>
+      <c r="F99" t="s">
         <v>195</v>
-      </c>
-      <c r="F99" t="s">
-        <v>196</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -3850,10 +3847,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>196</v>
+      </c>
+      <c r="F100" t="s">
         <v>197</v>
-      </c>
-      <c r="F100" t="s">
-        <v>198</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
